--- a/13a.xlsx
+++ b/13a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiros-h\Documents\【連載】デジタルアドバンテージ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BD402A-5127-486A-AFF0-57C2D15C0555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEAC76E-C3FB-4966-A1FE-949522195F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="1815" windowWidth="28215" windowHeight="15098" xr2:uid="{CE50552C-6DD6-42F5-855E-DEEF77A41DC7}"/>
+    <workbookView xWindow="5558" yWindow="4777" windowWidth="28215" windowHeight="15098" xr2:uid="{CE50552C-6DD6-42F5-855E-DEEF77A41DC7}"/>
   </bookViews>
   <sheets>
     <sheet name="ワイブル分布の利用" sheetId="61" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -136,14 +136,6 @@
   </si>
   <si>
     <t>ここでの表とグラフの作り方（タイトルや軸の書式などの細かい設定は省略）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4. ［グラフのデザイン］タブを開き、［データの選択］ボタンをクリックする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5. ［データソースの選択］ダイアログボックスで［横（項目）軸ラベル］の下の［編集］ボタンをクリックする</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -282,91 +274,6 @@
   </si>
   <si>
     <t>1. セルB6に「=WEIBULL.DIST(A6:A55,B4:D4,B5:D5,FALSE)」と入力する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6. 系列（折れ線グラフの線の部分）を右クリックして［データ系列の書式設定］を選択する</t>
-    <rPh sb="3" eb="5">
-      <t>ケイレツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ケイレツ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ショシキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7. ［図形の書式設定］ウィンドウが表示されるので、［塗りつぶしと線］アイコン（ペンキ缶の絵のアイコン）をクリックする</t>
-    <rPh sb="4" eb="6">
-      <t>ズケイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショシキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヌ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8. ［スムージング］ボックスをクリックしてチェックマークをオンにする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9. 上記6～8の操作をすべての系列に対して行う</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケイレツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -735,6 +642,91 @@
     </rPh>
     <rPh sb="15" eb="18">
       <t>サイユウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4. 系列（折れ線グラフの線の部分）を右クリックして［データ系列の書式設定］を選択する</t>
+    <rPh sb="3" eb="5">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5. ［図形の書式設定］ウィンドウが表示されるので、［塗りつぶしと線］アイコン（ペンキ缶の絵のアイコン）をクリックする</t>
+    <rPh sb="4" eb="6">
+      <t>ズケイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショシキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6. ［スムージング］ボックスをクリックしてチェックマークをオンにする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7. 上記4～6の操作をすべての系列に対して行う</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケイレツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5503,7 +5495,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -5511,13 +5503,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="12">
         <v>18</v>
@@ -5531,7 +5523,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="12"/>
     </row>
@@ -5540,12 +5532,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5570,7 +5562,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -5579,7 +5571,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -6336,7 +6328,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -6347,22 +6339,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.7">
@@ -6389,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.7">
@@ -6406,7 +6398,7 @@
         <v>-2.1259493990627685</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.7">
@@ -6426,7 +6418,7 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.7">
@@ -6457,7 +6449,7 @@
         <v>-2.1651967763114026</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.7">
@@ -6474,7 +6466,7 @@
         <v>-2.1692876477389835</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.7">
@@ -6491,7 +6483,7 @@
         <v>-2.1906518392358998</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.7">
@@ -6522,7 +6514,7 @@
         <v>-2.2151298024004067</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.7">
@@ -6539,7 +6531,7 @@
         <v>-2.2169940586860957</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.7">
@@ -6556,7 +6548,7 @@
         <v>-2.2177676510071693</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.7">
@@ -6573,7 +6565,7 @@
         <v>-2.2237353273536518</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.7">
@@ -6590,7 +6582,7 @@
         <v>-2.2362112824405833</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.7">
@@ -6607,7 +6599,7 @@
         <v>-2.2398281929470794</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.7">
@@ -6624,7 +6616,7 @@
         <v>-2.2403282094416856</v>
       </c>
       <c r="G18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.7">
@@ -6641,7 +6633,7 @@
         <v>-2.2424964664986509</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.7">
@@ -6658,7 +6650,7 @@
         <v>-2.2503557689349045</v>
       </c>
       <c r="G20" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.7">
@@ -6675,7 +6667,7 @@
         <v>-2.2515995888994609</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.7">
@@ -6692,7 +6684,7 @@
         <v>-2.2531335508429544</v>
       </c>
       <c r="G22" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.7">
@@ -20453,7 +20445,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
@@ -20464,22 +20456,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.7">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.7">
@@ -20524,7 +20516,7 @@
         <v>-6.2146077650886919</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.7">
@@ -20582,7 +20574,7 @@
         <v>-5.2968141508186584</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.7">
@@ -20602,7 +20594,7 @@
         <v>-5.113990795035515</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.7">
@@ -20639,7 +20631,7 @@
         <v>-4.8253038627666713</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.7">
@@ -20659,7 +20651,7 @@
         <v>-4.7070177647573335</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.7">
@@ -20679,7 +20671,7 @@
         <v>-4.6011537640966704</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.7">
@@ -20699,7 +20691,7 @@
         <v>-4.5053396758717073</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.7">
@@ -20719,7 +20711,7 @@
         <v>-4.4178239662735557</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.7">
@@ -20739,7 +20731,7 @@
         <v>-4.337276501031389</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.7">
@@ -20759,7 +20751,7 @@
         <v>-4.2626633455744942</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.7">
@@ -20779,7 +20771,7 @@
         <v>-4.1931648642732045</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.7">
@@ -20799,7 +20791,7 @@
         <v>-4.1281203060313345</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.7">
@@ -37542,7 +37534,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -37552,7 +37544,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -37560,13 +37552,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="12">
         <v>18</v>
@@ -37580,7 +37572,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="12">
         <f>_xlfn.WEIBULL.DIST(B4,B3,D3,TRUE)</f>
@@ -37592,12 +37584,12 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -37625,7 +37617,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -37634,7 +37626,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -37744,7 +37736,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.7">
@@ -37752,7 +37744,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.7">
@@ -37760,7 +37752,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.7">
@@ -37776,7 +37768,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.7">
@@ -37784,7 +37776,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.7">
@@ -37792,7 +37784,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.7">
@@ -37800,23 +37792,17 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A29">
         <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.7">
@@ -37974,7 +37960,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -37983,7 +37969,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -38739,7 +38725,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -38748,7 +38734,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -38858,7 +38844,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.7">
@@ -38866,7 +38852,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.7">
@@ -38874,7 +38860,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.7">
@@ -38890,7 +38876,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.7">
@@ -38898,7 +38884,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.7">
@@ -38906,7 +38892,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.7">
@@ -38914,23 +38900,17 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A29">
         <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.7">
@@ -39088,7 +39068,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -39097,7 +39077,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -39853,7 +39833,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -39861,24 +39841,24 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="12">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="17">
         <v>0.95</v>
@@ -39893,12 +39873,12 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -39923,7 +39903,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -39931,24 +39911,24 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="12">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A4" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="17">
         <v>0.95</v>
@@ -39970,12 +39950,12 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -40000,7 +39980,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A1" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -40009,7 +39989,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.7">
       <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -40119,7 +40099,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.7">
@@ -40127,7 +40107,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.7">
@@ -40135,7 +40115,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.7">
@@ -40151,7 +40131,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.7">
@@ -40159,7 +40139,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.7">
@@ -40167,7 +40147,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.7">
@@ -40175,23 +40155,17 @@
         <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A28">
         <v>23</v>
       </c>
-      <c r="F28" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.7">
       <c r="A29">
         <v>24</v>
-      </c>
-      <c r="F29" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.7">
